--- a/labor-timekeeper/exports/2025-12/2025-12-29/Thomas_Brinson_2025-12-29.xlsx
+++ b/labor-timekeeper/exports/2025-12/2025-12-29/Thomas_Brinson_2025-12-29.xlsx
@@ -35,7 +35,7 @@
     <t>2026-01-01</t>
   </si>
   <si>
-    <t>Corr</t>
+    <t>McClure</t>
   </si>
   <si>
     <t>Holiday</t>
@@ -44,7 +44,7 @@
     <t>2026-01-02</t>
   </si>
   <si>
-    <t>Moulton</t>
+    <t>Evans</t>
   </si>
   <si>
     <t>Regular</t>
@@ -83,7 +83,7 @@
     <t>Thomas Brinson</t>
   </si>
   <si>
-    <t>emp_pu67gtu5</t>
+    <t>emp_4nlnrvy7</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,10 +566,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
   </sheetData>
@@ -740,10 +740,10 @@
         <v>20</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -769,10 +769,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
